--- a/최종실습/requirements.xlsx
+++ b/최종실습/requirements.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>요구사항명</t>
   </si>
@@ -93,6 +93,10 @@
   </si>
   <si>
     <t>나무심기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 1이가 가장 높은 중요도, 5가 가장 낮은 중요도임</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -166,7 +170,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -196,6 +200,9 @@
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -477,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -710,6 +717,11 @@
       <c r="G17" s="2"/>
       <c r="H17" s="8"/>
     </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D18" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
